--- a/tspi/ciclo-1/logt2/20105914.xlsx
+++ b/tspi/ciclo-1/logt2/20105914.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -62,13 +62,28 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Participé en la reunión #1 con el cliente</t>
+    <t>Participé en el analisis de los requerimientos obtenidos en la reunión #1. Se documento una parte del diagrama de casos de uso, y falto documentar los escenarios.</t>
+  </si>
+  <si>
+    <t>10,11</t>
   </si>
   <si>
     <t>Instalacion de ruby y redmine</t>
   </si>
   <si>
-    <t>Participé en el analisis de los requerimientos obtenidos en la reunión #1. Se documento una parte del diagrama de casos de uso, y falto documentar los escenarios.</t>
+    <t>Reunión de equipo para discutir estados de las tareas del ciclo #1.</t>
+  </si>
+  <si>
+    <t>13,14,15</t>
+  </si>
+  <si>
+    <t>Reunion para discutor casos de usos</t>
+  </si>
+  <si>
+    <t>Refinacion de casos de usos</t>
+  </si>
+  <si>
+    <t>Reunion semanal con el grupo</t>
   </si>
 </sst>
 </file>
@@ -186,7 +201,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0"/>
@@ -223,6 +238,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -241,20 +259,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E11" activeCellId="0" pane="topLeft" sqref="E11"/>
+      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="14.7137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="4" width="10.9960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="38.7372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="10.9960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="14.7882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="4" width="11.0509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="38.9372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="4" width="11.0509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="1">
@@ -269,7 +287,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="9" t="n">
-        <v>41905</v>
+        <v>41909</v>
       </c>
       <c r="G1" s="9"/>
     </row>
@@ -303,108 +321,178 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="E5" s="3" t="n">
+        <f aca="false">SUM(E7:E12)/60</f>
+        <v>7.33333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
-        <v>41905</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.670138888888889</v>
-      </c>
-      <c r="D6" s="3" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="n">
+        <v>41910</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <f aca="false">((HOUR(C6)-HOUR(B6))*60)+(MINUTE(C6)-MINUTE(B6))-D6</f>
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="n">
-        <v>41911</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="E7" s="3" t="n">
         <f aca="false">((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
-        <v>80</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
+        <v>120</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>12</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="51.65" outlineLevel="0" r="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>41910</v>
+        <v>41911</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.75</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3" t="n">
         <f aca="false">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
-        <v>120</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0.993055555555555</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <f aca="false">((HOUR(C9)-HOUR(B9))*60)+(MINUTE(C9)-MINUTE(B9))-D9</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="n">
+        <v>41914</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0.802083333333333</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" s="3" t="n">
-        <f aca="false">SUM(E6:E8)/60</f>
-        <v>3.91666666666667</v>
+        <f aca="false">((HOUR(C10)-HOUR(B10))*60)+(MINUTE(C10)-MINUTE(B10))-D10</f>
+        <v>45</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="n">
+        <v>41915</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.576388888888889</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <f aca="false">((HOUR(C11)-HOUR(B11))*60)+(MINUTE(C11)-MINUTE(B11))-D11</f>
+        <v>70</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="n">
+        <v>41915</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">((HOUR(C12)-HOUR(B12))*60)+(MINUTE(C12)-MINUTE(B12))-D12</f>
+        <v>90</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
